--- a/server/src/test/resources/LGW_Forecast_Fixture.xlsx
+++ b/server/src/test/resources/LGW_Forecast_Fixture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nilesh/HO_DRT/drt-v2/server/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083BCF18-A8AF-1949-8D04-5645C67557C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B10493-789D-5E43-A842-47E2871921FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15900" xr2:uid="{0663B09F-C0D7-4686-ACD9-8FF02FAE6961}"/>
   </bookViews>
@@ -107,25 +107,25 @@
     <t>T</t>
   </si>
   <si>
-    <t>EZY8623</t>
-  </si>
-  <si>
     <t>PMI</t>
   </si>
   <si>
-    <t>FR0120</t>
-  </si>
-  <si>
-    <t>BT0651</t>
-  </si>
-  <si>
-    <t>EZY9001</t>
-  </si>
-  <si>
-    <t>SHJ0001</t>
-  </si>
-  <si>
     <t>FAB</t>
+  </si>
+  <si>
+    <t>TST001</t>
+  </si>
+  <si>
+    <t>TST002</t>
+  </si>
+  <si>
+    <t>TST003</t>
+  </si>
+  <si>
+    <t>TST004</t>
+  </si>
+  <si>
+    <t>TST005</t>
   </si>
 </sst>
 </file>
@@ -647,7 +647,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -700,10 +700,10 @@
         <v>0.20833333333333334</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>6</v>
@@ -732,7 +732,7 @@
         <v>0.2986111111111111</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>10</v>
@@ -764,10 +764,10 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>19</v>
@@ -796,7 +796,7 @@
         <v>0.33680555555555558</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>17</v>
@@ -828,7 +828,7 @@
         <v>0.31944444444444448</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>18</v>
@@ -854,5 +854,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/server/src/test/resources/LGW_Forecast_Fixture.xlsx
+++ b/server/src/test/resources/LGW_Forecast_Fixture.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nilesh/HO_DRT/drt-v2/server/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B10493-789D-5E43-A842-47E2871921FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7939B79A-6D30-514E-A439-A79402FB5AA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15900" xr2:uid="{0663B09F-C0D7-4686-ACD9-8FF02FAE6961}"/>
   </bookViews>
@@ -41,9 +41,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>OpeFlightNo</t>
-  </si>
-  <si>
     <t>Service</t>
   </si>
   <si>
@@ -53,9 +50,6 @@
     <t>Known Op</t>
   </si>
   <si>
-    <t>Sum of Pax</t>
-  </si>
-  <si>
     <t>Passenger</t>
   </si>
   <si>
@@ -126,6 +120,12 @@
   </si>
   <si>
     <t>TST005</t>
+  </si>
+  <si>
+    <t>FlightNo</t>
+  </si>
+  <si>
+    <t>Forecast Pax</t>
   </si>
 </sst>
 </file>
@@ -647,7 +647,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -656,8 +656,8 @@
     <col min="2" max="6" width="12.33203125" customWidth="1"/>
     <col min="7" max="7" width="12.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.33203125" customWidth="1"/>
-    <col min="9" max="9" width="6.83203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9" style="2"/>
+    <col min="9" max="9" width="12.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="14" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
@@ -665,31 +665,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>4</v>
-      </c>
       <c r="I1" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -700,25 +700,25 @@
         <v>0.20833333333333334</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G2" s="4">
         <v>320</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J2" s="7">
         <v>94.569617486338814</v>
@@ -732,25 +732,25 @@
         <v>0.2986111111111111</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="I3" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="J3" s="7">
         <v>54.166666666666671</v>
@@ -764,25 +764,25 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G4" s="4">
         <v>320</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J4" s="7">
         <v>0</v>
@@ -796,25 +796,25 @@
         <v>0.33680555555555558</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G5" s="4">
         <v>319</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J5" s="7">
         <v>0</v>
@@ -828,25 +828,25 @@
         <v>0.31944444444444448</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G6" s="4">
         <v>223</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J6" s="7">
         <v>14.500000000000009</v>

--- a/server/src/test/resources/LGW_Forecast_Fixture.xlsx
+++ b/server/src/test/resources/LGW_Forecast_Fixture.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nilesh/HO_DRT/drt-v2/server/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7939B79A-6D30-514E-A439-A79402FB5AA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4781631D-DC72-0048-A04C-C6A405FCF381}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15900" xr2:uid="{0663B09F-C0D7-4686-ACD9-8FF02FAE6961}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -644,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF66ACCD-9152-4728-B435-3305158BCCDE}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -852,6 +852,34 @@
         <v>14.500000000000009</v>
       </c>
     </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="8">
+        <v>44022</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="4">
+        <v>223</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="7">
+        <v>14.500000000000009</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/server/src/test/resources/LGW_Forecast_Fixture.xlsx
+++ b/server/src/test/resources/LGW_Forecast_Fixture.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nilesh/HO_DRT/drt-v2/server/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4781631D-DC72-0048-A04C-C6A405FCF381}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE708E0-99C2-C947-A25E-49B065157048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15900" xr2:uid="{0663B09F-C0D7-4686-ACD9-8FF02FAE6961}"/>
+    <workbookView xWindow="940" yWindow="500" windowWidth="28800" windowHeight="15900" xr2:uid="{0663B09F-C0D7-4686-ACD9-8FF02FAE6961}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,103 +36,160 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>Service</t>
-  </si>
-  <si>
     <t>ArrDep</t>
   </si>
   <si>
-    <t>Known Op</t>
-  </si>
-  <si>
-    <t>Passenger</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
-    <t>Expected</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
-    <t>DUB</t>
-  </si>
-  <si>
     <t>Airport</t>
   </si>
   <si>
-    <t>Positioning</t>
-  </si>
-  <si>
-    <t>Time (UTC)</t>
-  </si>
-  <si>
-    <t>Unverified</t>
-  </si>
-  <si>
-    <t>Aircraft</t>
-  </si>
-  <si>
-    <t>73H</t>
-  </si>
-  <si>
-    <t>LGW</t>
-  </si>
-  <si>
-    <t>RIX</t>
-  </si>
-  <si>
-    <t>General Aviation</t>
-  </si>
-  <si>
-    <t>Dom/Int</t>
-  </si>
-  <si>
     <t>I</t>
   </si>
   <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>PMI</t>
-  </si>
-  <si>
-    <t>FAB</t>
-  </si>
-  <si>
-    <t>TST001</t>
-  </si>
-  <si>
-    <t>TST002</t>
-  </si>
-  <si>
-    <t>TST003</t>
-  </si>
-  <si>
-    <t>TST004</t>
-  </si>
-  <si>
-    <t>TST005</t>
-  </si>
-  <si>
-    <t>FlightNo</t>
-  </si>
-  <si>
-    <t>Forecast Pax</t>
+    <t>Passenger Forecast - 22-Oct</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>STRICTLY INTERNAL ONLY</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Flight level passenger volumes must not be shared externally.
+If third parties require this schedule or passenger forecast  please contact Ampie Jones</t>
+    </r>
+  </si>
+  <si>
+    <t>All times in local times</t>
+  </si>
+  <si>
+    <t>Scheduled Time</t>
+  </si>
+  <si>
+    <t>Flight Number</t>
+  </si>
+  <si>
+    <t>Ope</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Aircraft Type</t>
+  </si>
+  <si>
+    <t>Seats</t>
+  </si>
+  <si>
+    <t>Int/Dom</t>
+  </si>
+  <si>
+    <t>Pax Fcst</t>
+  </si>
+  <si>
+    <t>08:30</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>UVF</t>
+  </si>
+  <si>
+    <t>06:30</t>
+  </si>
+  <si>
+    <t>MRU</t>
+  </si>
+  <si>
+    <t>10:40</t>
+  </si>
+  <si>
+    <t>PLS</t>
+  </si>
+  <si>
+    <t>10:25</t>
+  </si>
+  <si>
+    <t>SKB</t>
+  </si>
+  <si>
+    <t>11:20</t>
+  </si>
+  <si>
+    <t>CUN</t>
+  </si>
+  <si>
+    <t>TA1001</t>
+  </si>
+  <si>
+    <t>TA1002</t>
+  </si>
+  <si>
+    <t>TA1003</t>
+  </si>
+  <si>
+    <t>TA1004</t>
+  </si>
+  <si>
+    <t>TA1005</t>
+  </si>
+  <si>
+    <t>Test1</t>
+  </si>
+  <si>
+    <t>Test2</t>
+  </si>
+  <si>
+    <t>Test3</t>
+  </si>
+  <si>
+    <t>Test4</t>
+  </si>
+  <si>
+    <t>Test5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,16 +198,51 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -162,24 +254,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.249977111117893"/>
-        <bgColor theme="7" tint="-0.249977111117893"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor rgb="FF008080"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -188,55 +280,82 @@
       <diagonal/>
     </border>
     <border>
+      <left style="slantDashDot">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="slantDashDot">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top style="slantDashDot">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="slantDashDot">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="slantDashDot">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="slantDashDot">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
       <top/>
-      <bottom style="thin">
-        <color theme="7" tint="0.79998168889431442"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="slantDashDot">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="slantDashDot">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="slantDashDot">
+        <color rgb="FFFF0000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="7" tint="0.79998168889431442"/>
-      </top>
-      <bottom style="thin">
-        <color theme="7" tint="0.39997558519241921"/>
+      <top/>
+      <bottom style="slantDashDot">
+        <color rgb="FFFF0000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color theme="7" tint="0.79998168889431442"/>
-      </top>
-      <bottom style="thin">
-        <color theme="7"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="7" tint="0.79998168889431442"/>
-      </top>
-      <bottom style="thin">
-        <color theme="7" tint="0.79998168889431442"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="7" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="7" tint="0.39997558519241921"/>
+      <right style="slantDashDot">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="slantDashDot">
+        <color rgb="FFFF0000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -244,7 +363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -252,18 +371,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -644,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF66ACCD-9152-4728-B435-3305158BCCDE}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -660,227 +807,354 @@
     <col min="10" max="10" width="14" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="M1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="7"/>
+    </row>
+    <row r="2" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="10"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="10"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="E4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="9"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="10"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A5" s="13">
+        <v>44491</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="10" t="s">
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="10" t="s">
+      <c r="H5" s="2">
+        <v>772</v>
+      </c>
+      <c r="I5" s="2">
+        <v>336</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="2">
+        <v>110</v>
+      </c>
+      <c r="M5" s="9"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="10"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A6" s="13">
+        <v>44491</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="2">
+        <v>772</v>
+      </c>
+      <c r="I6" s="2">
+        <v>332</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="2">
+        <v>85</v>
+      </c>
+      <c r="M6" s="9"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="10"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A7" s="13">
+        <v>44491</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="2">
+        <v>772</v>
+      </c>
+      <c r="I7" s="2">
+        <v>336</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="2">
+        <v>331</v>
+      </c>
+      <c r="M7" s="9"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="10"/>
+    </row>
+    <row r="8" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="13">
+        <v>44491</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="H8" s="2">
+        <v>772</v>
+      </c>
+      <c r="I8" s="2">
+        <v>332</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="2">
+        <v>313</v>
+      </c>
+      <c r="M8" s="15"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="17"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A9" s="13">
+        <v>44491</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="12">
-        <v>44022</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="4">
-        <v>320</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="7">
-        <v>94.569617486338814</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="8">
-        <v>44022</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.2986111111111111</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="E9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="2">
+        <v>772</v>
+      </c>
+      <c r="I9" s="2">
+        <v>332</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="7">
-        <v>54.166666666666671</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="8">
-        <v>44022</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="4">
-        <v>320</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="8">
-        <v>44022</v>
-      </c>
-      <c r="B5" s="9">
-        <v>0.33680555555555558</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="4">
-        <v>319</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="8">
-        <v>44022</v>
-      </c>
-      <c r="B6" s="9">
-        <v>0.31944444444444448</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="4">
-        <v>223</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="7">
-        <v>14.500000000000009</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="8">
-        <v>44022</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="4">
-        <v>223</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="7">
-        <v>14.500000000000009</v>
-      </c>
+      <c r="K9" s="2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="K14" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="M1:Q8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
